--- a/medicine/Enfance/Guillaume_Olive/Guillaume_Olive.xlsx
+++ b/medicine/Enfance/Guillaume_Olive/Guillaume_Olive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Olive, né le 1er novembre 1972, est auteur de livres pour la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guillaume Olive est sinologue formé à l’École pratique des hautes études[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guillaume Olive est sinologue formé à l’École pratique des hautes études.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a vécu plusieurs années en Chine, où il a rencontré sa femme He Zhihong[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a vécu plusieurs années en Chine, où il a rencontré sa femme He Zhihong.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le daim mangeur de tigre, L’école des loisirs[3], 2002
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le daim mangeur de tigre, L’école des loisirs, 2002
 La déesse Nüwa, Syros Jeunesse, 2002
 Contes de Mandchourie : Le fleuve du dragon noir, L’école des loisirs, 2003
 Contes des peuples de Chine, Syros Jeunesse, 2003 (Prix de la Nuit du Livre)
@@ -586,16 +604,16 @@
 J’apprends la calligraphie chinoise, Picquier Jeunesse, 2006
 La forêt des pandas, Seuil Jeunesse, 2006 (Prix Saint-Exupéry)
 Poèmes de Chine, Seuil, 2009
-La Grande Muraille de Chine, Casterman[4], 2009
-Nian le terrible, Seuil Jeunesse, 2012[5]
+La Grande Muraille de Chine, Casterman, 2009
+Nian le terrible, Seuil Jeunesse, 2012
 Voilà le loup, Flammarion, 2013
 10 contes de Chine, Flammarion Jeunesse, 2014
 Contes de Chine : L'origine des grandes fêtes, Seuil Jeunesse, 2014
-Le Plouf[6], Les éditions des éléphants, 2015
-Où es-tu Léo ?[7], Seuil Jeunesse, 2016
+Le Plouf, Les éditions des éléphants, 2015
+Où es-tu Léo ?, Seuil Jeunesse, 2016
 Les lapins et la tortue, Les éditions des éléphants, 2016
 Contes des peuples de Chine, Les éditions des éléphants, 2016
-Je t'aime, Seuil Jeunesse[8], 2017
+Je t'aime, Seuil Jeunesse, 2017
 La Chine en 12 récits, Flammarion Jeunesse, 2017
 Le renard et le tigre, Les éditions des éléphants, 2017
 Les singes et la lune, Les éditions des éléphants, 2018
